--- a/test/data/spreadsheets/ART-687-11-CODNoPeriod1_Period3.xlsx
+++ b/test/data/spreadsheets/ART-687-11-CODNoPeriod1_Period3.xlsx
@@ -1980,10 +1980,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2001,42 +2001,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="35">
-        <v>40909</v>
+        <v>40544</v>
       </c>
       <c r="B2" s="43">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="35">
-        <v>41274</v>
-      </c>
-      <c r="B3" s="44">
-        <v>69.999999999999986</v>
+        <v>40909</v>
+      </c>
+      <c r="B3" s="43">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="35">
-        <v>41639</v>
+        <v>41274</v>
       </c>
       <c r="B4" s="44">
-        <v>80</v>
+        <v>69.999999999999986</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="35">
-        <v>42004</v>
-      </c>
-      <c r="B5" s="45">
-        <v>50</v>
+        <v>41639</v>
+      </c>
+      <c r="B5" s="44">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="35">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>42004</v>
+      </c>
+      <c r="B6" s="45">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2068,6 +2068,14 @@
         <v>0</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="35">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
